--- a/results_final/ci_MH.xlsx
+++ b/results_final/ci_MH.xlsx
@@ -519,91 +519,91 @@
         <v>0.236257522822892</v>
       </c>
       <c r="D2">
-        <v>0.235366436255127</v>
+        <v>0.2353808692170102</v>
       </c>
       <c r="E2">
-        <v>0.2344911155968243</v>
+        <v>0.2345336233158151</v>
       </c>
       <c r="F2">
-        <v>0.2336312367320678</v>
+        <v>0.2337147086699072</v>
       </c>
       <c r="G2">
-        <v>0.2327864834922136</v>
+        <v>0.2329230935552905</v>
       </c>
       <c r="H2">
-        <v>0.2319565474252166</v>
+        <v>0.2321577888095908</v>
       </c>
       <c r="I2">
-        <v>0.2311411275726727</v>
+        <v>0.2314178457898681</v>
       </c>
       <c r="J2">
-        <v>0.2303399302542831</v>
+        <v>0.2307023544442605</v>
       </c>
       <c r="K2">
-        <v>0.2295526688594669</v>
+        <v>0.2300104414902487</v>
       </c>
       <c r="L2">
-        <v>0.228779063645853</v>
+        <v>0.2293412686928342</v>
       </c>
       <c r="M2">
-        <v>0.228018841544398</v>
+        <v>0.2286940312363973</v>
       </c>
       <c r="N2">
-        <v>0.2272717359708839</v>
+        <v>0.2280679561844266</v>
       </c>
       <c r="O2">
-        <v>0.2265374866435619</v>
+        <v>0.2274623010217193</v>
       </c>
       <c r="P2">
-        <v>0.2258158394067163</v>
+        <v>0.2268763522740143</v>
       </c>
       <c r="Q2">
-        <v>0.2251065460599329</v>
+        <v>0.2263094242003667</v>
       </c>
       <c r="R2">
-        <v>0.2244093641928638</v>
+        <v>0.2257608575538867</v>
       </c>
       <c r="S2">
-        <v>0.2237240570252903</v>
+        <v>0.2252300184067607</v>
       </c>
       <c r="T2">
-        <v>0.2230503932522924</v>
+        <v>0.2247162970357427</v>
       </c>
       <c r="U2">
-        <v>0.222388146894341</v>
+        <v>0.2242191068645566</v>
       </c>
       <c r="V2">
-        <v>0.2217370971521371</v>
+        <v>0.2237378834598853</v>
       </c>
       <c r="W2">
-        <v>0.2210970282660288</v>
+        <v>0.223272083577837</v>
       </c>
       <c r="X2">
-        <v>0.2204677293798426</v>
+        <v>0.222821184257982</v>
       </c>
       <c r="Y2">
-        <v>0.2198489944089742</v>
+        <v>0.2223846819622407</v>
       </c>
       <c r="Z2">
-        <v>0.2192406219125877</v>
+        <v>0.2219620917560774</v>
       </c>
       <c r="AA2">
-        <v>0.2186424149697787</v>
+        <v>0.2215529465296144</v>
       </c>
       <c r="AB2">
-        <v>0.2180541810595638</v>
+        <v>0.221156796256435</v>
       </c>
       <c r="AC2">
-        <v>0.217475731944562</v>
+        <v>0.2207732072879802</v>
       </c>
       <c r="AD2">
-        <v>0.2169068835582408</v>
+        <v>0.2204017616815782</v>
       </c>
       <c r="AE2">
-        <v>0.216347455895603</v>
+        <v>0.2200420565602632</v>
       </c>
       <c r="AF2">
-        <v>0.2157972729071963</v>
+        <v>0.2196937035026567</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -611,97 +611,97 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2141411028578384</v>
+        <v>0.2141411028578385</v>
       </c>
       <c r="C3">
         <v>0.2093131140741207</v>
       </c>
       <c r="D3">
-        <v>0.2046593042191724</v>
+        <v>0.2047339902384919</v>
       </c>
       <c r="E3">
-        <v>0.2001719670322484</v>
+        <v>0.2003879753606218</v>
       </c>
       <c r="F3">
-        <v>0.1958437948111909</v>
+        <v>0.1962605053014515</v>
       </c>
       <c r="G3">
-        <v>0.191667855092629</v>
+        <v>0.1923381038670192</v>
       </c>
       <c r="H3">
-        <v>0.1876375688433569</v>
+        <v>0.1886082890589851</v>
       </c>
       <c r="I3">
-        <v>0.1837466900560218</v>
+        <v>0.1850594883890695</v>
       </c>
       <c r="J3">
-        <v>0.1799892866504089</v>
+        <v>0.1816809622923574</v>
       </c>
       <c r="K3">
-        <v>0.1763597225891016</v>
+        <v>0.1784627347860999</v>
       </c>
       <c r="L3">
-        <v>0.1728526411231815</v>
+        <v>0.1753955306184121</v>
       </c>
       <c r="M3">
-        <v>0.1694629490899552</v>
+        <v>0.1724707182369828</v>
       </c>
       <c r="N3">
-        <v>0.1661858021905164</v>
+        <v>0.1696802579831501</v>
       </c>
       <c r="O3">
-        <v>0.1630165911803061</v>
+        <v>0.1670166549828402</v>
       </c>
       <c r="P3">
-        <v>0.1599509289107577</v>
+        <v>0.1644729162640752</v>
       </c>
       <c r="Q3">
-        <v>0.1569846381646588</v>
+        <v>0.1620425116820589</v>
       </c>
       <c r="R3">
-        <v>0.1541137402320384</v>
+        <v>0.1597193382781162</v>
       </c>
       <c r="S3">
-        <v>0.1513344441772476</v>
+        <v>0.1574976877387531</v>
       </c>
       <c r="T3">
-        <v>0.1486431367514549</v>
+        <v>0.1553722166564779</v>
       </c>
       <c r="U3">
-        <v>0.1460363729080596</v>
+        <v>0.1533379193253544</v>
       </c>
       <c r="V3">
-        <v>0.1435108668815564</v>
+        <v>0.1513901028320302</v>
       </c>
       <c r="W3">
-        <v>0.1410634837931781</v>
+        <v>0.1495243642276437</v>
       </c>
       <c r="X3">
-        <v>0.1386912317492324</v>
+        <v>0.1477365695879184</v>
       </c>
       <c r="Y3">
-        <v>0.1363912544004337</v>
+        <v>0.1460228347882541</v>
       </c>
       <c r="Z3">
-        <v>0.1341608239327422</v>
+        <v>0.1443795078379779</v>
       </c>
       <c r="AA3">
-        <v>0.1319973344622668</v>
+        <v>0.1428031526334048</v>
       </c>
       <c r="AB3">
-        <v>0.1298982958086779</v>
+        <v>0.1412905340031704</v>
       </c>
       <c r="AC3">
-        <v>0.1278613276233308</v>
+        <v>0.1398386039316451</v>
       </c>
       <c r="AD3">
-        <v>0.1258841538499213</v>
+        <v>0.1384444888572789</v>
       </c>
       <c r="AE3">
-        <v>0.1239645974969985</v>
+        <v>0.1371054779526157</v>
       </c>
       <c r="AF3">
-        <v>0.1221005757030569</v>
+        <v>0.1358190123015717</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.2083631273380663</v>
       </c>
       <c r="D4">
-        <v>0.2044143762352802</v>
+        <v>0.2044778521413778</v>
       </c>
       <c r="E4">
-        <v>0.2005941839272819</v>
+        <v>0.2007783680226081</v>
       </c>
       <c r="F4">
-        <v>0.1968973817251352</v>
+        <v>0.1972538305636888</v>
       </c>
       <c r="G4">
-        <v>0.1933190458043777</v>
+        <v>0.1938941543279754</v>
       </c>
       <c r="H4">
-        <v>0.1898544840038103</v>
+        <v>0.1906899512951862</v>
       </c>
       <c r="I4">
-        <v>0.1864992234159637</v>
+        <v>0.187632474919315</v>
       </c>
       <c r="J4">
-        <v>0.1832489987172494</v>
+        <v>0.1847135692425109</v>
       </c>
       <c r="K4">
-        <v>0.1800997411895008</v>
+        <v>0.1819256225601941</v>
       </c>
       <c r="L4">
-        <v>0.1770475683880234</v>
+        <v>0.179261525187569</v>
       </c>
       <c r="M4">
-        <v>0.1740887744144288</v>
+        <v>0.1767146309261649</v>
       </c>
       <c r="N4">
-        <v>0.1712198207554433</v>
+        <v>0.1742787218718523</v>
       </c>
       <c r="O4">
-        <v>0.1684373276515811</v>
+        <v>0.171947976243691</v>
       </c>
       <c r="P4">
-        <v>0.1657380659620684</v>
+        <v>0.1697169389465298</v>
       </c>
       <c r="Q4">
-        <v>0.1631189494947164</v>
+        <v>0.1675804946100619</v>
       </c>
       <c r="R4">
-        <v>0.1605770277715811</v>
+        <v>0.1655338428734791</v>
       </c>
       <c r="S4">
-        <v>0.1581094792032325</v>
+        <v>0.1635724757083744</v>
       </c>
       <c r="T4">
-        <v>0.1557136046462922</v>
+        <v>0.1616921565934607</v>
       </c>
       <c r="U4">
-        <v>0.1533868213206063</v>
+        <v>0.1598889013733139</v>
       </c>
       <c r="V4">
-        <v>0.1511266570639977</v>
+        <v>0.1581589606499675</v>
       </c>
       <c r="W4">
-        <v>0.1489307449040153</v>
+        <v>0.1564988035710308</v>
       </c>
       <c r="X4">
-        <v>0.1467968179274534</v>
+        <v>0.154905102891267</v>
       </c>
       <c r="Y4">
-        <v>0.1447227044296876</v>
+        <v>0.1533747211964339</v>
       </c>
       <c r="Z4">
-        <v>0.1427063233270434</v>
+        <v>0.1519046981888214</v>
       </c>
       <c r="AA4">
-        <v>0.1407456798165107</v>
+        <v>0.1504922389434471</v>
       </c>
       <c r="AB4">
-        <v>0.1388388612681322</v>
+        <v>0.1491347030524241</v>
       </c>
       <c r="AC4">
-        <v>0.1369840333363406</v>
+        <v>0.1478295945826932</v>
       </c>
       <c r="AD4">
-        <v>0.1351794362773977</v>
+        <v>0.1465745527792195</v>
       </c>
       <c r="AE4">
-        <v>0.1334233814609105</v>
+        <v>0.1453673434519687</v>
       </c>
       <c r="AF4">
-        <v>0.1317142480641594</v>
+        <v>0.144205850990573</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.2340017226395489</v>
       </c>
       <c r="D5">
-        <v>0.232735474420659</v>
+        <v>0.232755967266229</v>
       </c>
       <c r="E5">
-        <v>0.2314936626458449</v>
+        <v>0.2315539214649986</v>
       </c>
       <c r="F5">
-        <v>0.230275723864091</v>
+        <v>0.2303938686347166</v>
       </c>
       <c r="G5">
-        <v>0.2290811102850748</v>
+        <v>0.2292741704593106</v>
       </c>
       <c r="H5">
-        <v>0.2279092892662221</v>
+        <v>0.2281932627116679</v>
       </c>
       <c r="I5">
-        <v>0.2267597428189665</v>
+        <v>0.2271496513177404</v>
       </c>
       <c r="J5">
-        <v>0.2256319671334105</v>
+        <v>0.2261419086626763</v>
       </c>
       <c r="K5">
-        <v>0.2245254721206222</v>
+        <v>0.2251686701221905</v>
       </c>
       <c r="L5">
-        <v>0.2234397809718369</v>
+        <v>0.2242286308036737</v>
       </c>
       <c r="M5">
-        <v>0.2223744297338649</v>
+        <v>0.2233205424827177</v>
       </c>
       <c r="N5">
-        <v>0.221328966900041</v>
+        <v>0.2224432107218144</v>
       </c>
       <c r="O5">
-        <v>0.2203029530160785</v>
+        <v>0.2215954921589786</v>
       </c>
       <c r="P5">
-        <v>0.2192959603002212</v>
+        <v>0.2207762919549557</v>
       </c>
       <c r="Q5">
-        <v>0.2183075722771135</v>
+        <v>0.2199845613885103</v>
       </c>
       <c r="R5">
-        <v>0.217337383424834</v>
+        <v>0.2192192955900661</v>
       </c>
       <c r="S5">
-        <v>0.2163849988345629</v>
+        <v>0.2184795314046698</v>
       </c>
       <c r="T5">
-        <v>0.2154500338823782</v>
+        <v>0.217764345375908</v>
       </c>
       <c r="U5">
-        <v>0.2145321139126962</v>
+        <v>0.2170728518430058</v>
       </c>
       <c r="V5">
-        <v>0.2136308739328935</v>
+        <v>0.2164042011438882</v>
       </c>
       <c r="W5">
-        <v>0.2127459583186697</v>
+        <v>0.215757577917497</v>
       </c>
       <c r="X5">
-        <v>0.2118770205297252</v>
+        <v>0.2151321994991278</v>
       </c>
       <c r="Y5">
-        <v>0.2110237228353533</v>
+        <v>0.2145273144029842</v>
       </c>
       <c r="Z5">
-        <v>0.2101857360495549</v>
+        <v>0.2139422008865519</v>
       </c>
       <c r="AA5">
-        <v>0.2093627392753097</v>
+        <v>0.2133761655917637</v>
       </c>
       <c r="AB5">
-        <v>0.2085544196576457</v>
+        <v>0.2128285422582712</v>
       </c>
       <c r="AC5">
-        <v>0.2077604721451703</v>
+        <v>0.2122986905044585</v>
       </c>
       <c r="AD5">
-        <v>0.2069805992597355</v>
+        <v>0.2117859946721234</v>
       </c>
       <c r="AE5">
-        <v>0.2062145108739284</v>
+        <v>0.21128986273103</v>
       </c>
       <c r="AF5">
-        <v>0.2054619239960866</v>
+        <v>0.2108097252397839</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -905,97 +905,97 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2578654048909471</v>
+        <v>0.257865404890947</v>
       </c>
       <c r="C6">
-        <v>0.2543099624138451</v>
+        <v>0.2543099624138448</v>
       </c>
       <c r="D6">
-        <v>0.2508522969271579</v>
+        <v>0.2509080281078909</v>
       </c>
       <c r="E6">
-        <v>0.2474890703911242</v>
+        <v>0.2476516383586559</v>
       </c>
       <c r="F6">
-        <v>0.2442170807426275</v>
+        <v>0.244533325546313</v>
       </c>
       <c r="G6">
-        <v>0.2410332555271197</v>
+        <v>0.2415460819582484</v>
       </c>
       <c r="H6">
-        <v>0.23793464586474</v>
+        <v>0.2386833266780121</v>
       </c>
       <c r="I6">
-        <v>0.2349184207313119</v>
+        <v>0.2359388751783503</v>
       </c>
       <c r="J6">
-        <v>0.2319818615361157</v>
+        <v>0.2333069113732832</v>
       </c>
       <c r="K6">
-        <v>0.2291223569794661</v>
+        <v>0.2307819619084678</v>
       </c>
       <c r="L6">
-        <v>0.2263373981741804</v>
+        <v>0.2283588724907602</v>
       </c>
       <c r="M6">
-        <v>0.2236245740160073</v>
+        <v>0.2260327860772669</v>
       </c>
       <c r="N6">
-        <v>0.220981566789008</v>
+        <v>0.2237991227615044</v>
       </c>
       <c r="O6">
-        <v>0.2184061479927355</v>
+        <v>0.221653561209811</v>
       </c>
       <c r="P6">
-        <v>0.2158961743788646</v>
+        <v>0.2195920215150697</v>
       </c>
       <c r="Q6">
-        <v>0.2134495841856705</v>
+        <v>0.2176106493472895</v>
       </c>
       <c r="R6">
-        <v>0.2110643935594546</v>
+        <v>0.2157058012918093</v>
       </c>
       <c r="S6">
-        <v>0.2087386931526724</v>
+        <v>0.213874031275971</v>
       </c>
       <c r="T6">
-        <v>0.206470644889128</v>
+        <v>0.2121120779941891</v>
       </c>
       <c r="U6">
-        <v>0.204258478887173</v>
+        <v>0.2104168532495131</v>
       </c>
       <c r="V6">
-        <v>0.202100490532385</v>
+        <v>0.2087854311371541</v>
       </c>
       <c r="W6">
-        <v>0.1999950376917004</v>
+        <v>0.2072150380020949</v>
       </c>
       <c r="X6">
-        <v>0.1979405380614473</v>
+        <v>0.2057030431089108</v>
       </c>
       <c r="Y6">
-        <v>0.1959354666421638</v>
+        <v>0.20424694996736</v>
       </c>
       <c r="Z6">
-        <v>0.1939783533334999</v>
+        <v>0.202844388262211</v>
       </c>
       <c r="AA6">
-        <v>0.1920677806428876</v>
+        <v>0.2014931063402278</v>
       </c>
       <c r="AB6">
-        <v>0.1902023815020261</v>
+        <v>0.2001909642112621</v>
       </c>
       <c r="AC6">
-        <v>0.1883808371855688</v>
+        <v>0.1989359270240584</v>
       </c>
       <c r="AD6">
-        <v>0.1866018753267193</v>
+        <v>0.1977260589806991</v>
       </c>
       <c r="AE6">
-        <v>0.1848642680247408</v>
+        <v>0.196559517656629</v>
       </c>
       <c r="AF6">
-        <v>0.1831668300396655</v>
+        <v>0.1954345486959422</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.2827013628419978</v>
       </c>
       <c r="D7">
-        <v>0.2360204630224487</v>
+        <v>0.2367126764642934</v>
       </c>
       <c r="E7">
-        <v>0.1975462133380655</v>
+        <v>0.1992637601689073</v>
       </c>
       <c r="F7">
-        <v>0.1657561664291226</v>
+        <v>0.1686082894939804</v>
       </c>
       <c r="G7">
-        <v>0.1394239763928326</v>
+        <v>0.1433857544386656</v>
       </c>
       <c r="H7">
-        <v>0.1175593257986106</v>
+        <v>0.1225305199598744</v>
       </c>
       <c r="I7">
-        <v>0.09936051504311302</v>
+        <v>0.1052035509885108</v>
       </c>
       <c r="J7">
-        <v>0.0841769502056044</v>
+        <v>0.09074086980595773</v>
       </c>
       <c r="K7">
-        <v>0.07147938854691972</v>
+        <v>0.07861443557027049</v>
       </c>
       <c r="L7">
-        <v>0.06083627910689236</v>
+        <v>0.0684022964659543</v>
       </c>
       <c r="M7">
-        <v>0.05189490403768093</v>
+        <v>0.0597657003299742</v>
       </c>
       <c r="N7">
-        <v>0.04436631044144856</v>
+        <v>0.0524314542279633</v>
       </c>
       <c r="O7">
-        <v>0.0380132422987807</v>
+        <v>0.04617826345644724</v>
       </c>
       <c r="P7">
-        <v>0.03264045255788796</v>
+        <v>0.04082610235999205</v>
       </c>
       <c r="Q7">
-        <v>0.02808690799980313</v>
+        <v>0.03622790609651104</v>
       </c>
       <c r="R7">
-        <v>0.02421950279304339</v>
+        <v>0.03226304747778826</v>
       </c>
       <c r="S7">
-        <v>0.02092797734810755</v>
+        <v>0.02883219300378817</v>
       </c>
       <c r="T7">
-        <v>0.01812080227129512</v>
+        <v>0.0258532292390701</v>
       </c>
       <c r="U7">
-        <v>0.01572183681216385</v>
+        <v>0.02325802344795883</v>
       </c>
       <c r="V7">
-        <v>0.01366761021348084</v>
+        <v>0.0209898372301642</v>
       </c>
       <c r="W7">
-        <v>0.01190510513348552</v>
+        <v>0.01900125339082535</v>
       </c>
       <c r="X7">
-        <v>0.01038994661801284</v>
+        <v>0.01725250781895381</v>
       </c>
       <c r="Y7">
-        <v>0.009084919350776257</v>
+        <v>0.01571014222608528</v>
       </c>
       <c r="Z7">
-        <v>0.007958751189208984</v>
+        <v>0.01434591205523554</v>
       </c>
       <c r="AA7">
-        <v>0.006985113146240262</v>
+        <v>0.01313589807853249</v>
       </c>
       <c r="AB7">
-        <v>0.006141795665419808</v>
+        <v>0.01205978118251046</v>
       </c>
       <c r="AC7">
-        <v>0.005410028774484551</v>
+        <v>0.01110024835942141</v>
       </c>
       <c r="AD7">
-        <v>0.004773919895889554</v>
+        <v>0.01024250455798088</v>
       </c>
       <c r="AE7">
-        <v>0.004219988060354151</v>
+        <v>0.009473870233796859</v>
       </c>
       <c r="AF7">
-        <v>0.003736777261817658</v>
+        <v>0.008783448509238748</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.3848931328742282</v>
       </c>
       <c r="D8">
-        <v>0.3357233385348377</v>
+        <v>0.3364687667974589</v>
       </c>
       <c r="E8">
-        <v>0.2933958216481422</v>
+        <v>0.2953256798368299</v>
       </c>
       <c r="F8">
-        <v>0.2568891149741201</v>
+        <v>0.2602297680729619</v>
       </c>
       <c r="G8">
-        <v>0.2253436868581279</v>
+        <v>0.2301765434940095</v>
       </c>
       <c r="H8">
-        <v>0.1980348815186534</v>
+        <v>0.2043450071227889</v>
       </c>
       <c r="I8">
-        <v>0.1743505982979504</v>
+        <v>0.1820614128020484</v>
       </c>
       <c r="J8">
-        <v>0.1537728440237559</v>
+        <v>0.1627706770491966</v>
       </c>
       <c r="K8">
-        <v>0.1358624570615423</v>
+        <v>0.1460137260030363</v>
       </c>
       <c r="L8">
-        <v>0.1202464337121749</v>
+        <v>0.1314094724056506</v>
       </c>
       <c r="M8">
-        <v>0.1066073939090066</v>
+        <v>0.1186404185495185</v>
       </c>
       <c r="N8">
-        <v>0.09467480889142743</v>
+        <v>0.1074411105516951</v>
       </c>
       <c r="O8">
-        <v>0.08421768279683456</v>
+        <v>0.09758884381209118</v>
       </c>
       <c r="P8">
-        <v>0.07503843618784757</v>
+        <v>0.08889615279424211</v>
       </c>
       <c r="Q8">
-        <v>0.06696778501478876</v>
+        <v>0.08120472049454054</v>
       </c>
       <c r="R8">
-        <v>0.05986044547511124</v>
+        <v>0.07438042169545432</v>
       </c>
       <c r="S8">
-        <v>0.0535915253240773</v>
+        <v>0.06830927497305291</v>
       </c>
       <c r="T8">
-        <v>0.04805348673617569</v>
+        <v>0.06289412568201477</v>
       </c>
       <c r="U8">
-        <v>0.04315358587353074</v>
+        <v>0.05805191896016696</v>
       </c>
       <c r="V8">
-        <v>0.03881171073607309</v>
+        <v>0.05371145059032339</v>
       </c>
       <c r="W8">
-        <v>0.03495855233230116</v>
+        <v>0.04981150616005595</v>
       </c>
       <c r="X8">
-        <v>0.0315340552700399</v>
+        <v>0.0462993167650434</v>
       </c>
       <c r="Y8">
-        <v>0.02848610296846071</v>
+        <v>0.04312927357603332</v>
       </c>
       <c r="Z8">
-        <v>0.02576940019543022</v>
+        <v>0.04026185475274034</v>
       </c>
       <c r="AA8">
-        <v>0.02334452182937278</v>
+        <v>0.03766272707177584</v>
       </c>
       <c r="AB8">
-        <v>0.02117710186871244</v>
+        <v>0.0353019917284383</v>
       </c>
       <c r="AC8">
-        <v>0.01923714095681874</v>
+        <v>0.03315354945300424</v>
       </c>
       <c r="AD8">
-        <v>0.01749841421274107</v>
+        <v>0.03119456464628144</v>
       </c>
       <c r="AE8">
-        <v>0.01593796408554922</v>
+        <v>0.02940501191730281</v>
       </c>
       <c r="AF8">
-        <v>0.01453566538712016</v>
+        <v>0.0277672913789817</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1202,94 +1202,94 @@
         <v>0.2300599835057191</v>
       </c>
       <c r="C9">
-        <v>0.2258272331623235</v>
+        <v>0.2258272331623233</v>
       </c>
       <c r="D9">
-        <v>0.2217299962399555</v>
+        <v>0.2217958858089483</v>
       </c>
       <c r="E9">
-        <v>0.2177629101695231</v>
+        <v>0.2179542506095806</v>
       </c>
       <c r="F9">
-        <v>0.2139208627568403</v>
+        <v>0.2142914505790406</v>
       </c>
       <c r="G9">
-        <v>0.2101989788665329</v>
+        <v>0.2107973568947449</v>
       </c>
       <c r="H9">
-        <v>0.2065926078942972</v>
+        <v>0.2074625291800314</v>
       </c>
       <c r="I9">
-        <v>0.2030973119763704</v>
+        <v>0.2042781611595759</v>
       </c>
       <c r="J9">
-        <v>0.1997088548886659</v>
+        <v>0.201236031152984</v>
       </c>
       <c r="K9">
-        <v>0.1964231915913498</v>
+        <v>0.1983284569304674</v>
       </c>
       <c r="L9">
-        <v>0.1932364583777045</v>
+        <v>0.1955482545055845</v>
       </c>
       <c r="M9">
-        <v>0.1901449635889729</v>
+        <v>0.1928887004851867</v>
       </c>
       <c r="N9">
-        <v>0.1871451788595052</v>
+        <v>0.1903434976366918</v>
       </c>
       <c r="O9">
-        <v>0.1842337308589709</v>
+        <v>0.1879067433682453</v>
       </c>
       <c r="P9">
-        <v>0.1814073935006576</v>
+        <v>0.1855729008487802</v>
       </c>
       <c r="Q9">
-        <v>0.1786630805869709</v>
+        <v>0.1833367725229226</v>
       </c>
       <c r="R9">
-        <v>0.1759978388651938</v>
+        <v>0.1811934758005405</v>
       </c>
       <c r="S9">
-        <v>0.1734088414683634</v>
+        <v>0.1791384207228603</v>
       </c>
       <c r="T9">
-        <v>0.170893381717798</v>
+        <v>0.1771672894267971</v>
       </c>
       <c r="U9">
-        <v>0.1684488672653558</v>
+        <v>0.17527601724674</v>
       </c>
       <c r="V9">
-        <v>0.1660728145549533</v>
+        <v>0.1734607753087598</v>
       </c>
       <c r="W9">
-        <v>0.1637628435842078</v>
+        <v>0.1717179544862564</v>
       </c>
       <c r="X9">
-        <v>0.1615166729483166</v>
+        <v>0.1700441505986498</v>
       </c>
       <c r="Y9">
-        <v>0.1593321151494421</v>
+        <v>0.1684361507459892</v>
       </c>
       <c r="Z9">
-        <v>0.1572070721559504</v>
+        <v>0.1668909206824669</v>
       </c>
       <c r="AA9">
-        <v>0.1551395311968551</v>
+        <v>0.1654055931409003</v>
       </c>
       <c r="AB9">
-        <v>0.1531275607777493</v>
+        <v>0.1639774570284016</v>
       </c>
       <c r="AC9">
-        <v>0.1511693069053804</v>
+        <v>0.1626039474207934</v>
       </c>
       <c r="AD9">
-        <v>0.1492629895088322</v>
+        <v>0.1612826362899311</v>
       </c>
       <c r="AE9">
-        <v>0.147406899046034</v>
+        <v>0.160011223904048</v>
       </c>
       <c r="AF9">
-        <v>0.1455993932850191</v>
+        <v>0.1587875308466057</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1297,97 +1297,97 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8090798252082539</v>
+        <v>0.8090798252082536</v>
       </c>
       <c r="C10">
-        <v>0.8352602500361944</v>
+        <v>0.8352602500361941</v>
       </c>
       <c r="D10">
-        <v>0.8619034707821105</v>
+        <v>0.861464414982287</v>
       </c>
       <c r="E10">
-        <v>0.8890056679175248</v>
+        <v>0.8876676754575028</v>
       </c>
       <c r="F10">
-        <v>0.9165627171156114</v>
+        <v>0.9138461282369726</v>
       </c>
       <c r="G10">
-        <v>0.9445701956471284</v>
+        <v>0.9399766533093444</v>
       </c>
       <c r="H10">
-        <v>0.973023389122875</v>
+        <v>0.9660369497609748</v>
       </c>
       <c r="I10">
-        <v>1.001917298561834</v>
+        <v>0.9920055659250157</v>
       </c>
       <c r="J10">
-        <v>1.031246647763986</v>
+        <v>1.017861924047408</v>
       </c>
       <c r="K10">
-        <v>1.061005890966672</v>
+        <v>1.043586339739304</v>
       </c>
       <c r="L10">
-        <v>1.091189220763346</v>
+        <v>1.069160036498791</v>
       </c>
       <c r="M10">
-        <v>1.121790576263571</v>
+        <v>1.09456515559437</v>
       </c>
       <c r="N10">
-        <v>1.152803651473212</v>
+        <v>1.11978476160871</v>
       </c>
       <c r="O10">
-        <v>1.1842219038739</v>
+        <v>1.144802843944171</v>
       </c>
       <c r="P10">
-        <v>1.21603856318106</v>
+        <v>1.169604314591725</v>
       </c>
       <c r="Q10">
-        <v>1.248246640260017</v>
+        <v>1.194175002462577</v>
       </c>
       <c r="R10">
-        <v>1.280838936180028</v>
+        <v>1.218501644577263</v>
       </c>
       <c r="S10">
-        <v>1.313808051386377</v>
+        <v>1.242571874400603</v>
       </c>
       <c r="T10">
-        <v>1.347146394971106</v>
+        <v>1.266374207602892</v>
       </c>
       <c r="U10">
-        <v>1.380846194023338</v>
+        <v>1.289898025518357</v>
       </c>
       <c r="V10">
-        <v>1.414899503040619</v>
+        <v>1.313133556561433</v>
       </c>
       <c r="W10">
-        <v>1.449298213383204</v>
+        <v>1.336071855850111</v>
       </c>
       <c r="X10">
-        <v>1.484034062753706</v>
+        <v>1.358704783273559</v>
       </c>
       <c r="Y10">
-        <v>1.519098644685102</v>
+        <v>1.381024980228737</v>
       </c>
       <c r="Z10">
-        <v>1.554483418020624</v>
+        <v>1.403025845237875</v>
       </c>
       <c r="AA10">
-        <v>1.590179716369677</v>
+        <v>1.42470150864568</v>
       </c>
       <c r="AB10">
-        <v>1.626178757524524</v>
+        <v>1.446046806582075</v>
       </c>
       <c r="AC10">
-        <v>1.662471652823083</v>
+        <v>1.46705725436328</v>
       </c>
       <c r="AD10">
-        <v>1.699049416443829</v>
+        <v>1.487729019491237</v>
       </c>
       <c r="AE10">
-        <v>1.735902974619439</v>
+        <v>1.508058894398786</v>
       </c>
       <c r="AF10">
-        <v>1.773023174756432</v>
+        <v>1.528044269075779</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.297399964447877</v>
+        <v>0.2973999644478773</v>
       </c>
       <c r="C11">
-        <v>0.2960223741642075</v>
+        <v>0.2960223741642079</v>
       </c>
       <c r="D11">
-        <v>0.2946703180548981</v>
+        <v>0.2946922087454438</v>
       </c>
       <c r="E11">
-        <v>0.2933432371791322</v>
+        <v>0.2934076593169918</v>
       </c>
       <c r="F11">
-        <v>0.292040587292438</v>
+        <v>0.2921669964467963</v>
       </c>
       <c r="G11">
-        <v>0.2907618383901805</v>
+        <v>0.2909685660560363</v>
       </c>
       <c r="H11">
-        <v>0.2895064742673163</v>
+        <v>0.2898107855738487</v>
       </c>
       <c r="I11">
-        <v>0.2882739920937652</v>
+        <v>0.2886921403196177</v>
       </c>
       <c r="J11">
-        <v>0.2870639020047769</v>
+        <v>0.2876111800975958</v>
       </c>
       <c r="K11">
-        <v>0.285875726705701</v>
+        <v>0.2865665159897473</v>
       </c>
       <c r="L11">
-        <v>0.2847090010905918</v>
+        <v>0.2855568173337474</v>
       </c>
       <c r="M11">
-        <v>0.2835632718741074</v>
+        <v>0.2845808088740193</v>
       </c>
       <c r="N11">
-        <v>0.2824380972361816</v>
+        <v>0.2836372680745725</v>
       </c>
       <c r="O11">
-        <v>0.2813330464789739</v>
+        <v>0.2827250225832127</v>
       </c>
       <c r="P11">
-        <v>0.2802476996956212</v>
+        <v>0.2818429478374388</v>
       </c>
       <c r="Q11">
-        <v>0.2791816474503356</v>
+        <v>0.2809899648030315</v>
       </c>
       <c r="R11">
-        <v>0.2781344904694136</v>
+        <v>0.2801650378369684</v>
       </c>
       <c r="S11">
-        <v>0.2771058393427382</v>
+        <v>0.2793671726668901</v>
       </c>
       <c r="T11">
-        <v>0.2760953142353756</v>
+        <v>0.278595414479877</v>
       </c>
       <c r="U11">
-        <v>0.2751025446088811</v>
+        <v>0.2778488461138013</v>
       </c>
       <c r="V11">
-        <v>0.2741271689519501</v>
+        <v>0.2771265863449766</v>
       </c>
       <c r="W11">
-        <v>0.2731688345200606</v>
+        <v>0.2764277882662559</v>
       </c>
       <c r="X11">
-        <v>0.2722271970837706</v>
+        <v>0.2757516377501258</v>
       </c>
       <c r="Y11">
-        <v>0.2713019206853476</v>
+        <v>0.275097351991708</v>
       </c>
       <c r="Z11">
-        <v>0.2703926774034199</v>
+        <v>0.2744641781269212</v>
       </c>
       <c r="AA11">
-        <v>0.2694991471253537</v>
+        <v>0.2738513919213696</v>
       </c>
       <c r="AB11">
-        <v>0.2686210173270689</v>
+        <v>0.2732582965258168</v>
       </c>
       <c r="AC11">
-        <v>0.2677579828600229</v>
+        <v>0.2726842212943735</v>
       </c>
       <c r="AD11">
-        <v>0.2669097457450976</v>
+        <v>0.2721285206617802</v>
       </c>
       <c r="AE11">
-        <v>0.2660760149731402</v>
+        <v>0.2715905730763997</v>
       </c>
       <c r="AF11">
-        <v>0.2652565063119143</v>
+        <v>0.271069779985749</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1499,91 +1499,91 @@
         <v>0.195397820029489</v>
       </c>
       <c r="D12">
-        <v>0.1889760310306022</v>
+        <v>0.1890785348751236</v>
       </c>
       <c r="E12">
-        <v>0.1828508209983827</v>
+        <v>0.1831441568462354</v>
       </c>
       <c r="F12">
-        <v>0.1770057779546287</v>
+        <v>0.1775658239099951</v>
       </c>
       <c r="G12">
-        <v>0.1714255313431287</v>
+        <v>0.1723172301348836</v>
       </c>
       <c r="H12">
-        <v>0.1660956782862905</v>
+        <v>0.1673743677780994</v>
       </c>
       <c r="I12">
-        <v>0.1610027155657934</v>
+        <v>0.1627152983081792</v>
       </c>
       <c r="J12">
-        <v>0.1561339768463626</v>
+        <v>0.158319948812343</v>
       </c>
       <c r="K12">
-        <v>0.1514775747050827</v>
+        <v>0.1541699307088919</v>
       </c>
       <c r="L12">
-        <v>0.1470223470678255</v>
+        <v>0.1502483780889557</v>
       </c>
       <c r="M12">
-        <v>0.1427578076898076</v>
+        <v>0.1465398033590889</v>
       </c>
       <c r="N12">
-        <v>0.1386741003493639</v>
+        <v>0.1430299681551351</v>
       </c>
       <c r="O12">
-        <v>0.1347619564530907</v>
+        <v>0.1397057677555638</v>
       </c>
       <c r="P12">
-        <v>0.1310126557768447</v>
+        <v>0.1365551274451488</v>
       </c>
       <c r="Q12">
-        <v>0.1274179900909855</v>
+        <v>0.1335669094725002</v>
       </c>
       <c r="R12">
-        <v>0.1239702294399273</v>
+        <v>0.1307308294118965</v>
       </c>
       <c r="S12">
-        <v>0.1206620908657627</v>
+        <v>0.1280373808847325</v>
       </c>
       <c r="T12">
-        <v>0.1174867093836131</v>
+        <v>0.1254777677218257</v>
       </c>
       <c r="U12">
-        <v>0.1144376110326346</v>
+        <v>0.123043842757432</v>
       </c>
       <c r="V12">
-        <v>0.1115086878414074</v>
+        <v>0.1207280525413816</v>
       </c>
       <c r="W12">
-        <v>0.1086941745599157</v>
+        <v>0.1185233873391639</v>
       </c>
       <c r="X12">
-        <v>0.1059886270225966</v>
+        <v>0.1164233358627247</v>
       </c>
       <c r="Y12">
-        <v>0.1033869020181231</v>
+        <v>0.1144218442385839</v>
       </c>
       <c r="Z12">
-        <v>0.1008841385517884</v>
+        <v>0.1125132787758589</v>
       </c>
       <c r="AA12">
-        <v>0.09847574039566349</v>
+        <v>0.1106923921459119</v>
       </c>
       <c r="AB12">
-        <v>0.09615735983019935</v>
+        <v>0.1089542926285314</v>
       </c>
       <c r="AC12">
-        <v>0.09392488248870332</v>
+        <v>0.1072944161175701</v>
       </c>
       <c r="AD12">
-        <v>0.0917744132232149</v>
+        <v>0.1057085006124625</v>
       </c>
       <c r="AE12">
-        <v>0.08970226291679063</v>
+        <v>0.104192562951604</v>
       </c>
       <c r="AF12">
-        <v>0.08770493617314255</v>
+        <v>0.102742877569687</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1591,97 +1591,97 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4269937661984929</v>
+        <v>0.4269937661984927</v>
       </c>
       <c r="C13">
-        <v>0.3582738118342021</v>
+        <v>0.3582738118342018</v>
       </c>
       <c r="D13">
-        <v>0.3013529760100829</v>
+        <v>0.3022002283891195</v>
       </c>
       <c r="E13">
-        <v>0.2540901672570625</v>
+        <v>0.2562076661096695</v>
       </c>
       <c r="F13">
-        <v>0.2147521202339951</v>
+        <v>0.2182933634393179</v>
       </c>
       <c r="G13">
-        <v>0.181932282034251</v>
+        <v>0.1868854507047759</v>
       </c>
       <c r="H13">
-        <v>0.154486474197382</v>
+        <v>0.1607438637974712</v>
       </c>
       <c r="I13">
-        <v>0.1314817349865712</v>
+        <v>0.138885384953636</v>
       </c>
       <c r="J13">
-        <v>0.1121555427771695</v>
+        <v>0.1205266335154095</v>
       </c>
       <c r="K13">
-        <v>0.0958832358934863</v>
+        <v>0.1050404832781255</v>
       </c>
       <c r="L13">
-        <v>0.08215191962435309</v>
+        <v>0.09192257585204183</v>
       </c>
       <c r="M13">
-        <v>0.07053951984134428</v>
+        <v>0.08076546462767462</v>
       </c>
       <c r="N13">
-        <v>0.06069792928508572</v>
+        <v>0.0712385548421737</v>
       </c>
       <c r="O13">
-        <v>0.05233941597369459</v>
+        <v>0.06307246776017696</v>
       </c>
       <c r="P13">
-        <v>0.04522563769635682</v>
+        <v>0.05604679780085207</v>
       </c>
       <c r="Q13">
-        <v>0.03915874320079878</v>
+        <v>0.04998048384933325</v>
       </c>
       <c r="R13">
-        <v>0.03397414792995088</v>
+        <v>0.04472420383907795</v>
       </c>
       <c r="S13">
-        <v>0.02953465652891393</v>
+        <v>0.04015434216447791</v>
       </c>
       <c r="T13">
-        <v>0.02572567086041874</v>
+        <v>0.03616818502034747</v>
       </c>
       <c r="U13">
-        <v>0.02245127482885618</v>
+        <v>0.03268007841757047</v>
       </c>
       <c r="V13">
-        <v>0.01963102893923701</v>
+        <v>0.02961834400912194</v>
       </c>
       <c r="W13">
-        <v>0.01719734055524274</v>
+        <v>0.02692279383820594</v>
       </c>
       <c r="X13">
-        <v>0.01509330209836991</v>
+        <v>0.02454272027687669</v>
       </c>
       <c r="Y13">
-        <v>0.01327091037570832</v>
+        <v>0.02243526441771695</v>
       </c>
       <c r="Z13">
-        <v>0.01168959695424784</v>
+        <v>0.02056408699220678</v>
       </c>
       <c r="AA13">
-        <v>0.01031501289079828</v>
+        <v>0.01889828199726485</v>
       </c>
       <c r="AB13">
-        <v>0.00911802186705484</v>
+        <v>0.0174114857273262</v>
       </c>
       <c r="AC13">
-        <v>0.008073864411189768</v>
+        <v>0.0160811436710689</v>
       </c>
       <c r="AD13">
-        <v>0.007161462838433506</v>
+        <v>0.01488790537376056</v>
       </c>
       <c r="AE13">
-        <v>0.006362842151749382</v>
+        <v>0.01381512337017831</v>
       </c>
       <c r="AF13">
-        <v>0.005662646677990399</v>
+        <v>0.01284843702689894</v>
       </c>
     </row>
   </sheetData>
